--- a/scripts/Human.xlsx
+++ b/scripts/Human.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="438">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -1352,13 +1352,23 @@
   </si>
   <si>
     <t>missing teeth</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1450,57 +1460,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1524,6 +1536,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="23" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1800,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1817,6 +1830,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1829,6 +1845,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1842,6 +1862,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>63</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.1575</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -1866,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -1879,7 +1903,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -1892,7 +1916,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -1905,7 +1929,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -1918,7 +1942,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -1931,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -1944,7 +1968,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -1957,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -1970,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
@@ -1983,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
@@ -1996,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
@@ -2009,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
@@ -2022,7 +2046,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="10"/>
@@ -2035,7 +2059,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="10"/>
@@ -2048,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="10"/>
@@ -2061,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="10"/>
@@ -2074,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="10"/>
@@ -2087,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="10"/>
@@ -2100,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="10"/>
@@ -2113,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="10"/>
@@ -2126,7 +2150,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -2139,7 +2163,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
@@ -2152,7 +2176,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
@@ -2165,7 +2189,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
@@ -2178,7 +2202,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
@@ -2191,7 +2215,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
@@ -2204,7 +2228,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
@@ -2217,7 +2241,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
@@ -2230,7 +2254,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
@@ -2243,7 +2267,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
@@ -2256,7 +2280,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
@@ -2269,7 +2293,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
@@ -2282,7 +2306,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
@@ -2295,7 +2319,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
@@ -2308,7 +2332,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
@@ -2321,7 +2345,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
@@ -2334,7 +2358,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
@@ -2347,7 +2371,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
@@ -2360,7 +2384,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
@@ -2373,7 +2397,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
@@ -2386,7 +2410,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
@@ -2399,7 +2423,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
@@ -2412,7 +2436,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
@@ -2425,7 +2449,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="10"/>
@@ -2438,7 +2462,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="10"/>
@@ -2451,7 +2475,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="10"/>
@@ -2464,7 +2488,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="10"/>
@@ -2477,7 +2501,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="10"/>
@@ -2490,7 +2514,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="10"/>
@@ -2503,7 +2527,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="10"/>
@@ -2516,7 +2540,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="10"/>
@@ -2529,7 +2553,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="10"/>
@@ -2542,7 +2566,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="10"/>
@@ -2555,7 +2579,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="10"/>
@@ -2568,7 +2592,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="10"/>
@@ -2581,7 +2605,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="10"/>
@@ -2594,7 +2618,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="10"/>
@@ -2607,7 +2631,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="10"/>
@@ -2620,7 +2644,7 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="10"/>
@@ -2633,7 +2657,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="10"/>
@@ -2646,7 +2670,7 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="10"/>
@@ -2659,7 +2683,7 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>IF(B67&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D67" s="10"/>
@@ -2672,7 +2696,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>IF(B68&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D68" s="10"/>
@@ -2685,7 +2709,7 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>IF(B69&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D69" s="10"/>
@@ -2698,7 +2722,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
@@ -2711,7 +2735,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>IF(B71&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D71" s="10"/>
@@ -2724,7 +2748,7 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>IF(B72&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D72" s="10"/>
@@ -2737,7 +2761,7 @@
         <v>0.1</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>IF(B73&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D73" s="10"/>
@@ -2750,7 +2774,7 @@
         <v>0.1</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f>IF(B74&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D74" s="10"/>
@@ -2763,7 +2787,7 @@
         <v>0.1</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f>IF(B75&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D75" s="10"/>
@@ -2776,7 +2800,7 @@
         <v>0.1</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f>IF(B76&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D76" s="10"/>
@@ -2789,7 +2813,7 @@
         <v>0.1</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f>IF(B77&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D77" s="10"/>
@@ -2802,7 +2826,7 @@
         <v>0.1</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f>IF(B78&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D78" s="10"/>
@@ -2815,7 +2839,7 @@
         <v>0.1</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f>IF(B79&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D79" s="10"/>
@@ -2828,7 +2852,7 @@
         <v>0.1</v>
       </c>
       <c r="C80" s="9" t="str">
-        <f>IF(B80&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D80" s="10"/>
@@ -2841,7 +2865,7 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="9" t="str">
-        <f>IF(B81&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D81" s="10"/>
@@ -2854,7 +2878,7 @@
         <v>0.1</v>
       </c>
       <c r="C82" s="9" t="str">
-        <f>IF(B82&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D82" s="7"/>
@@ -2867,7 +2891,7 @@
         <v>0.1</v>
       </c>
       <c r="C83" s="9" t="str">
-        <f>IF(B83&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D83" s="7"/>
@@ -2880,7 +2904,7 @@
         <v>0.1</v>
       </c>
       <c r="C84" s="9" t="str">
-        <f>IF(B84&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D84" s="7"/>
@@ -2893,7 +2917,7 @@
         <v>0.1</v>
       </c>
       <c r="C85" s="9" t="str">
-        <f>IF(B85&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D85" s="7"/>
@@ -2906,7 +2930,7 @@
         <v>0.1</v>
       </c>
       <c r="C86" s="9" t="str">
-        <f>IF(B86&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D86" s="7"/>
@@ -2919,7 +2943,7 @@
         <v>0.1</v>
       </c>
       <c r="C87" s="9" t="str">
-        <f>IF(B87&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D87" s="7"/>
@@ -2932,7 +2956,7 @@
         <v>0.1</v>
       </c>
       <c r="C88" s="9" t="str">
-        <f>IF(B88&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D88" s="7"/>
@@ -2947,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2959,15 +2983,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2978,8 +3005,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2991,12 +3022,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3007,7 +3042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -3015,11 +3050,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -3027,11 +3062,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -3039,11 +3074,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3051,11 +3086,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -3063,11 +3098,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3075,11 +3110,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>435</v>
       </c>
@@ -3087,11 +3122,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -3099,11 +3134,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3111,11 +3146,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -3123,11 +3158,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -3135,7 +3170,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3147,7 +3182,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3159,7 +3194,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3171,7 +3206,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3183,7 +3218,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3195,7 +3230,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3207,7 +3242,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3219,7 +3254,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3231,7 +3266,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3245,10 +3280,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3257,15 +3292,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3276,8 +3314,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3289,12 +3331,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3305,7 +3351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>422</v>
       </c>
@@ -3313,11 +3359,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C23" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>416</v>
       </c>
@@ -3325,11 +3371,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>413</v>
       </c>
@@ -3337,11 +3383,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>411</v>
       </c>
@@ -3349,11 +3395,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>410</v>
       </c>
@@ -3361,11 +3407,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>409</v>
       </c>
@@ -3373,11 +3419,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>408</v>
       </c>
@@ -3385,11 +3431,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>407</v>
       </c>
@@ -3397,11 +3443,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>424</v>
       </c>
@@ -3409,11 +3455,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>423</v>
       </c>
@@ -3421,11 +3467,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>421</v>
       </c>
@@ -3433,7 +3479,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3445,7 +3491,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3457,7 +3503,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3469,7 +3515,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3481,7 +3527,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3493,7 +3539,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3505,7 +3551,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3517,7 +3563,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3534,7 +3580,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3550,6 +3596,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -3562,6 +3611,10 @@
         <f>COUNTIF(C$6:C103, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3575,6 +3628,10 @@
         <f>COUNTIF(C$6:C103, "rare")</f>
         <v>35</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.35</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -3599,7 +3656,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C50" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -3612,7 +3669,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3625,7 +3682,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -3638,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -3651,7 +3708,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -3664,7 +3721,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -3677,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -3690,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -3703,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -3716,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
@@ -3729,7 +3786,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -3742,7 +3799,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -3755,7 +3812,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -3768,7 +3825,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -3781,7 +3838,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -3794,7 +3851,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -3807,7 +3864,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -3820,7 +3877,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -3833,7 +3890,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -3846,7 +3903,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -3859,7 +3916,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -3872,7 +3929,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -3885,7 +3942,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -3898,7 +3955,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -3911,7 +3968,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -3924,7 +3981,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -3937,7 +3994,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -3950,7 +4007,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -3963,7 +4020,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -3976,7 +4033,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -3989,7 +4046,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -4002,7 +4059,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -4015,7 +4072,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4028,7 +4085,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -4041,7 +4098,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -4054,7 +4111,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="7"/>
@@ -4067,7 +4124,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="7"/>
@@ -4080,7 +4137,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="7"/>
@@ -4093,7 +4150,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D44" s="7"/>
@@ -4106,7 +4163,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D45" s="7"/>
@@ -4119,7 +4176,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D46" s="7"/>
@@ -4132,7 +4189,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D47" s="7"/>
@@ -4145,7 +4202,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D48" s="7"/>
@@ -4158,7 +4215,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D49" s="8"/>
@@ -4171,7 +4228,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D50" s="8"/>
@@ -4252,7 +4309,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4268,6 +4325,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4280,6 +4340,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -4293,6 +4357,10 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>36</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.09</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -4317,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -4330,7 +4398,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -4343,7 +4411,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -4356,7 +4424,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -4369,7 +4437,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -4382,7 +4450,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -4395,7 +4463,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -4408,7 +4476,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -4421,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -4434,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -4447,7 +4515,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -4460,7 +4528,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -4473,7 +4541,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="2"/>
@@ -4486,7 +4554,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="2"/>
@@ -4499,7 +4567,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="2"/>
@@ -4512,7 +4580,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="2"/>
@@ -4525,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="2"/>
@@ -4538,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="2"/>
@@ -4551,7 +4619,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="2"/>
@@ -4564,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="2"/>
@@ -4577,7 +4645,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
@@ -4590,7 +4658,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
@@ -4603,7 +4671,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
@@ -4616,7 +4684,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
@@ -4629,7 +4697,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
@@ -4642,7 +4710,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
@@ -4655,7 +4723,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
@@ -4668,7 +4736,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -4681,7 +4749,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -4694,7 +4762,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -4707,7 +4775,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -4720,7 +4788,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
@@ -4733,7 +4801,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
@@ -4746,7 +4814,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
@@ -4759,7 +4827,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
@@ -4772,7 +4840,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
@@ -4785,7 +4853,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
@@ -4798,7 +4866,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
@@ -4811,7 +4879,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
@@ -4824,7 +4892,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
@@ -4837,7 +4905,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
@@ -4850,7 +4918,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
@@ -4863,7 +4931,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
@@ -4876,7 +4944,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
@@ -4889,7 +4957,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
@@ -4902,7 +4970,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
@@ -4915,7 +4983,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
@@ -4928,7 +4996,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
@@ -4941,7 +5009,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
@@ -4954,7 +5022,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
@@ -4967,7 +5035,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
@@ -4980,7 +5048,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
@@ -4993,7 +5061,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
@@ -5006,7 +5074,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
@@ -5019,7 +5087,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
@@ -5032,7 +5100,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
@@ -5047,10 +5115,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5059,15 +5127,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5078,8 +5149,12 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5091,8 +5166,12 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5103,7 +5182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -5115,7 +5194,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>405</v>
       </c>
@@ -5127,7 +5206,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>403</v>
       </c>
@@ -5139,7 +5218,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>402</v>
       </c>
@@ -5151,7 +5230,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>404</v>
       </c>
@@ -5163,7 +5242,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>401</v>
       </c>
@@ -5175,7 +5254,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -5187,7 +5266,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -5199,7 +5278,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -5211,7 +5290,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -5223,7 +5302,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -5267,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5277,15 +5356,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5296,8 +5378,12 @@
         <f>COUNTIF(C$6:C100, "common")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5309,11 +5395,15 @@
         <f>COUNTIF(C$6:C100, "rare")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5324,7 +5414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -5332,11 +5422,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C15" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -5344,11 +5434,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -5356,11 +5446,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -5368,11 +5458,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -5380,11 +5470,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -5392,11 +5482,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>432</v>
       </c>
@@ -5404,11 +5494,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>433</v>
       </c>
@@ -5416,11 +5506,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>406</v>
       </c>
@@ -5428,11 +5518,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>434</v>
       </c>
@@ -5440,7 +5530,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5481,7 +5571,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5497,6 +5587,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5509,6 +5602,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -5522,6 +5619,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>25</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -5546,7 +5647,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5559,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5572,7 +5673,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5585,7 +5686,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5598,7 +5699,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5611,7 +5712,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5624,7 +5725,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -5637,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -5650,7 +5751,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -5663,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
@@ -5676,7 +5777,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -5689,7 +5790,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -5702,7 +5803,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -5715,7 +5816,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -5728,7 +5829,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -5741,7 +5842,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -5754,7 +5855,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -5767,7 +5868,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -5780,7 +5881,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -5793,7 +5894,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -5806,7 +5907,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -5819,7 +5920,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -5832,7 +5933,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -5845,7 +5946,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -5858,7 +5959,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -5871,7 +5972,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -5884,7 +5985,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -5897,7 +5998,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -5910,7 +6011,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -5923,7 +6024,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -5936,7 +6037,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -5949,7 +6050,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -5962,7 +6063,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -5975,7 +6076,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -5988,7 +6089,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -6241,7 +6342,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6257,6 +6358,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6269,6 +6373,10 @@
         <f>COUNTIF(C$6:C114, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -6282,6 +6390,10 @@
         <f>COUNTIF(C$6:C114, "rare")</f>
         <v>58</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.14499999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -6306,7 +6418,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -6319,7 +6431,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -6332,7 +6444,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -6345,7 +6457,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -6358,7 +6470,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -6371,7 +6483,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -6384,7 +6496,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -6397,7 +6509,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -6410,7 +6522,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -6423,7 +6535,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -6436,7 +6548,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -6449,7 +6561,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -6462,7 +6574,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="2"/>
@@ -6475,7 +6587,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="2"/>
@@ -6488,7 +6600,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="2"/>
@@ -6501,7 +6613,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="2"/>
@@ -6514,7 +6626,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="2"/>
@@ -6527,7 +6639,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="2"/>
@@ -6540,7 +6652,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="2"/>
@@ -6553,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="2"/>
@@ -6566,7 +6678,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
@@ -6579,7 +6691,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
@@ -6592,7 +6704,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
@@ -6605,7 +6717,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
@@ -6618,7 +6730,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
@@ -6631,7 +6743,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
@@ -6644,7 +6756,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
@@ -6657,7 +6769,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -6670,7 +6782,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -6683,7 +6795,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -6696,7 +6808,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -6709,7 +6821,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
@@ -6722,7 +6834,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
@@ -6735,7 +6847,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
@@ -6748,7 +6860,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
@@ -6761,7 +6873,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
@@ -6774,7 +6886,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
@@ -6787,7 +6899,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
@@ -6800,7 +6912,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
@@ -6813,7 +6925,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
@@ -6826,7 +6938,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
@@ -6839,7 +6951,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
@@ -6852,7 +6964,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
@@ -6865,7 +6977,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
@@ -6878,7 +6990,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
@@ -6891,7 +7003,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
@@ -6904,7 +7016,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
@@ -6917,7 +7029,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
@@ -6930,7 +7042,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
@@ -6943,7 +7055,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
@@ -6956,7 +7068,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
@@ -6969,7 +7081,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
@@ -6982,7 +7094,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
@@ -6995,7 +7107,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
@@ -7008,7 +7120,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
@@ -7021,7 +7133,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
@@ -7034,7 +7146,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="2"/>
@@ -7047,7 +7159,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="2"/>
@@ -7060,7 +7172,7 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="2"/>
@@ -7073,7 +7185,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="2"/>
@@ -7086,7 +7198,7 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="2"/>
@@ -7099,7 +7211,7 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>IF(B67&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D67" s="2"/>
@@ -7112,7 +7224,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>IF(B68&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D68" s="2"/>
@@ -7125,7 +7237,7 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>IF(B69&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D69" s="2"/>
@@ -7138,7 +7250,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="2"/>
@@ -7151,7 +7263,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>IF(B71&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D71" s="2"/>
@@ -7164,7 +7276,7 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>IF(B72&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D72" s="2"/>
@@ -7177,7 +7289,7 @@
         <v>0.1</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>IF(B73&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D73" s="2"/>
@@ -7190,7 +7302,7 @@
         <v>0.1</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f>IF(B74&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D74" s="2"/>
@@ -7203,7 +7315,7 @@
         <v>0.1</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f>IF(B75&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D75" s="2"/>
@@ -7216,7 +7328,7 @@
         <v>0.1</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f>IF(B76&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D76" s="2"/>
@@ -7229,7 +7341,7 @@
         <v>0.1</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f>IF(B77&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D77" s="2"/>
@@ -7242,7 +7354,7 @@
         <v>0.1</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f>IF(B78&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D78" s="2"/>
@@ -7255,7 +7367,7 @@
         <v>0.1</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f>IF(B79&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D79" s="2"/>
@@ -7268,7 +7380,7 @@
         <v>0.1</v>
       </c>
       <c r="C80" s="9" t="str">
-        <f>IF(B80&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D80" s="2"/>
@@ -7281,7 +7393,7 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="9" t="str">
-        <f>IF(B81&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D81" s="2"/>
@@ -7294,7 +7406,7 @@
         <v>0.1</v>
       </c>
       <c r="C82" s="9" t="str">
-        <f>IF(B82&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D82" s="2"/>
@@ -7307,7 +7419,7 @@
         <v>0.1</v>
       </c>
       <c r="C83" s="9" t="str">
-        <f>IF(B83&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D83" s="2"/>
@@ -7400,7 +7512,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7416,6 +7528,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7428,6 +7543,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7441,6 +7560,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>3</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>4.6875E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -7465,7 +7588,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C16" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -7478,7 +7601,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7491,7 +7614,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7504,7 +7627,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -7517,7 +7640,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -7530,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -7543,7 +7666,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -7556,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -7569,7 +7692,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="10"/>
@@ -7582,7 +7705,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -7595,7 +7718,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7798,7 +7921,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7814,6 +7937,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7826,6 +7952,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7839,6 +7969,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>19</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.19</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -7863,7 +7997,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C34" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -7876,7 +8010,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7889,7 +8023,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7902,7 +8036,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -7915,7 +8049,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -7928,7 +8062,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -7941,7 +8075,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -7954,7 +8088,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -7967,7 +8101,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -7980,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -7993,7 +8127,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -8006,7 +8140,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -8019,7 +8153,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -8032,7 +8166,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8045,7 +8179,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -8058,7 +8192,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -8071,7 +8205,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -8084,7 +8218,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
@@ -8097,7 +8231,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
@@ -8110,7 +8244,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
@@ -8123,7 +8257,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
@@ -8136,7 +8270,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -8149,7 +8283,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -8162,7 +8296,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -8175,7 +8309,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -8188,7 +8322,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -8201,7 +8335,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -8214,7 +8348,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -8227,7 +8361,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8345,7 +8479,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8361,6 +8495,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8373,6 +8510,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8386,6 +8527,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>32</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.32</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -8410,7 +8555,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8423,7 +8568,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8436,7 +8581,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8449,7 +8594,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8462,7 +8607,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8475,7 +8620,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8488,7 +8633,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8501,7 +8646,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8514,7 +8659,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -8527,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -8540,7 +8685,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -8553,7 +8698,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -8566,7 +8711,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -8579,7 +8724,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8592,7 +8737,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -8605,7 +8750,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -8618,7 +8763,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -8631,7 +8776,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
@@ -8644,7 +8789,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
@@ -8657,7 +8802,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
@@ -8670,7 +8815,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -8683,7 +8828,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -8696,7 +8841,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -8709,7 +8854,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -8722,7 +8867,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -8735,7 +8880,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -8748,7 +8893,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -8761,7 +8906,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -8774,7 +8919,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8787,7 +8932,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="8"/>
@@ -8800,7 +8945,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="8"/>
@@ -8813,7 +8958,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="8"/>
@@ -8826,7 +8971,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
@@ -8839,7 +8984,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="8"/>
@@ -8852,7 +8997,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="8"/>
@@ -8865,7 +9010,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="8"/>
@@ -8878,7 +9023,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="8"/>
@@ -8891,7 +9036,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="8"/>
@@ -8904,7 +9049,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D44" s="8"/>
@@ -8917,7 +9062,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D45" s="8"/>
@@ -8930,7 +9075,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D46" s="8"/>
@@ -8943,7 +9088,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D47" s="8"/>
@@ -8961,7 +9106,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8977,6 +9122,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8989,6 +9137,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9002,6 +9154,10 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>0</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9026,7 +9182,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C13" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9039,7 +9195,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9052,7 +9208,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9065,7 +9221,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9078,7 +9234,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9091,7 +9247,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9104,7 +9260,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9117,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9267,7 +9423,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9283,6 +9439,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9295,6 +9454,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9308,6 +9471,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>23</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.359375</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9332,7 +9499,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9345,7 +9512,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9358,7 +9525,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9371,7 +9538,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9384,7 +9551,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9397,7 +9564,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9410,7 +9577,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9423,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9436,7 +9603,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9449,7 +9616,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9462,7 +9629,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9475,7 +9642,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9488,7 +9655,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9501,7 +9668,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -9514,7 +9681,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9527,7 +9694,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -9540,7 +9707,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9553,7 +9720,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9566,7 +9733,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -9579,7 +9746,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -9592,7 +9759,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -9605,7 +9772,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -9618,7 +9785,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -9631,7 +9798,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -9644,7 +9811,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -9657,7 +9824,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -9670,7 +9837,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -9683,7 +9850,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -9696,7 +9863,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -9709,7 +9876,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -9722,7 +9889,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -9740,7 +9907,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9756,6 +9923,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9768,6 +9938,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="13">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9781,6 +9955,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>11</v>
       </c>
+      <c r="D3" s="13">
+        <f>C3/B3</f>
+        <v>0.171875</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9805,7 +9983,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9818,7 +9996,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9831,7 +10009,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -9844,7 +10022,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -9857,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -9870,7 +10048,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -9883,7 +10061,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -9896,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9909,7 +10087,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9922,7 +10100,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9935,7 +10113,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9948,7 +10126,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9961,7 +10139,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9974,7 +10152,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -9987,7 +10165,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -10000,7 +10178,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -10013,7 +10191,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -10026,7 +10204,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -10039,7 +10217,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
